--- a/public/template/tpl3.xlsx
+++ b/public/template/tpl3.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C442F068-3568-49F5-9489-43666353C273}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527D0B9-2CF6-4C39-990D-28E703627122}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,14 @@
   </si>
   <si>
     <t>本</t>
+  </si>
+  <si>
+    <t>物品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111-212-121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -619,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,9 +642,10 @@
     <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
     <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -661,8 +670,11 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -687,8 +699,11 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -713,8 +728,11 @@
       <c r="H3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -740,7 +758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -766,7 +784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -792,7 +810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -818,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -844,7 +862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -870,7 +888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -896,7 +914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -922,7 +940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -948,7 +966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -974,7 +992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1000,7 +1018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1026,7 +1044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>

--- a/public/template/tpl3.xlsx
+++ b/public/template/tpl3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527D0B9-2CF6-4C39-990D-28E703627122}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E996FA-BF5C-4757-8E45-62AA7E113630}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="2955" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库存数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +189,10 @@
   </si>
   <si>
     <t>1111-212-121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +630,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,22 +656,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -679,13 +679,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -694,13 +694,13 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -708,13 +708,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>16</v>
@@ -723,10 +723,10 @@
         <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3">
         <v>123456</v>
@@ -737,13 +737,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>17</v>
@@ -752,10 +752,10 @@
         <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -763,13 +763,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>18</v>
@@ -778,10 +778,10 @@
         <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -789,13 +789,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>19</v>
@@ -804,10 +804,10 @@
         <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -815,13 +815,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -830,10 +830,10 @@
         <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -841,13 +841,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -856,10 +856,10 @@
         <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -867,13 +867,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>22</v>
@@ -882,10 +882,10 @@
         <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -893,13 +893,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>23</v>
@@ -908,10 +908,10 @@
         <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -919,13 +919,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>24</v>
@@ -934,10 +934,10 @@
         <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -945,13 +945,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>25</v>
@@ -960,10 +960,10 @@
         <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -971,13 +971,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>26</v>
@@ -986,10 +986,10 @@
         <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -997,13 +997,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>27</v>
@@ -1012,10 +1012,10 @@
         <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1023,13 +1023,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>28</v>
@@ -1038,10 +1038,10 @@
         <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1049,13 +1049,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>29</v>
@@ -1064,10 +1064,10 @@
         <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1075,13 +1075,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -1090,10 +1090,10 @@
         <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1101,13 +1101,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>31</v>
@@ -1116,10 +1116,10 @@
         <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1127,13 +1127,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>32</v>
@@ -1142,10 +1142,10 @@
         <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1153,13 +1153,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>33</v>
@@ -1168,10 +1168,10 @@
         <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
